--- a/ds09_icecream.xlsx
+++ b/ds09_icecream.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sudspg\su_dspg_ds\ds09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D609853B-B624-4B28-892A-ED9E7E608567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C7761-22B9-465D-BE9F-402FE934ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1260" windowWidth="20625" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="975" windowWidth="23850" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -80,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -860,6 +860,102 @@
         <v>620</v>
       </c>
     </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B62">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B63">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B64">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B65">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B66">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B67">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B68">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B69">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B70">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B71">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B72">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B73">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ds09_icecream.xlsx
+++ b/ds09_icecream.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sudspg\su_dspg_ds\ds09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suitc-my.sharepoint.com/personal/khiramatsu_mail_saitama-u_ac_jp/Documents/01_DS基礎/2025_01_DS基礎/01_DS講義資料_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C7761-22B9-465D-BE9F-402FE934ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C47C7761-22B9-465D-BE9F-402FE934ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A306CCF0-FD65-477D-9CC9-F02B8050B763}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="975" windowWidth="23850" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +85,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -361,18 +374,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:BJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,584 +393,549 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:62">
       <c r="A2" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B2">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>43831</v>
+      </c>
+      <c r="B2" s="3">
+        <v>510</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:62">
       <c r="A3" s="1">
-        <v>42767</v>
-      </c>
-      <c r="B3">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>43862</v>
+      </c>
+      <c r="B3" s="3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62">
       <c r="A4" s="1">
-        <v>42795</v>
-      </c>
-      <c r="B4">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>43891</v>
+      </c>
+      <c r="B4" s="3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
       <c r="A5" s="1">
-        <v>42826</v>
-      </c>
-      <c r="B5">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>43922</v>
+      </c>
+      <c r="B5" s="3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
       <c r="A6" s="1">
-        <v>42856</v>
-      </c>
-      <c r="B6">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>43952</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62">
       <c r="A7" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B7">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62">
       <c r="A8" s="1">
-        <v>42917</v>
-      </c>
-      <c r="B8">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>44013</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62">
       <c r="A9" s="1">
-        <v>42948</v>
-      </c>
-      <c r="B9">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>44044</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62">
       <c r="A10" s="1">
-        <v>42979</v>
-      </c>
-      <c r="B10">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>44075</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62">
       <c r="A11" s="1">
-        <v>43009</v>
-      </c>
-      <c r="B11">
+        <v>44105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62">
+      <c r="A12" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B12" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62">
+      <c r="A13" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B13" s="3">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>43040</v>
-      </c>
-      <c r="B12">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B13">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:62">
       <c r="A14" s="1">
-        <v>43101</v>
-      </c>
-      <c r="B14">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>44197</v>
+      </c>
+      <c r="B14" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62">
       <c r="A15" s="1">
-        <v>43132</v>
-      </c>
-      <c r="B15">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>44228</v>
+      </c>
+      <c r="B15" s="3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62">
       <c r="A16" s="1">
-        <v>43160</v>
-      </c>
-      <c r="B16">
-        <v>607</v>
+        <v>44256</v>
+      </c>
+      <c r="B16" s="3">
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>43191</v>
-      </c>
-      <c r="B17">
-        <v>746</v>
+        <v>44287</v>
+      </c>
+      <c r="B17" s="3">
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>43221</v>
-      </c>
-      <c r="B18">
-        <v>894</v>
+        <v>44317</v>
+      </c>
+      <c r="B18" s="3">
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B19">
-        <v>1021</v>
+        <v>44348</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>43282</v>
-      </c>
-      <c r="B20">
-        <v>1506</v>
+        <v>44378</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1485</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>43313</v>
-      </c>
-      <c r="B21">
-        <v>1443</v>
+        <v>44409</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1427</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B22">
-        <v>861</v>
+        <v>44440</v>
+      </c>
+      <c r="B22" s="3">
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>43374</v>
-      </c>
-      <c r="B23">
-        <v>640</v>
+        <v>44470</v>
+      </c>
+      <c r="B23" s="3">
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B24">
-        <v>492</v>
+        <v>44501</v>
+      </c>
+      <c r="B24" s="3">
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B25">
-        <v>537</v>
+        <v>44531</v>
+      </c>
+      <c r="B25" s="3">
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B26">
-        <v>494</v>
+        <v>44562</v>
+      </c>
+      <c r="B26" s="3">
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>43497</v>
-      </c>
-      <c r="B27">
-        <v>423</v>
+        <v>44593</v>
+      </c>
+      <c r="B27" s="3">
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>43525</v>
-      </c>
-      <c r="B28">
-        <v>542</v>
+        <v>44621</v>
+      </c>
+      <c r="B28" s="3">
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>43556</v>
-      </c>
-      <c r="B29">
-        <v>667</v>
+        <v>44652</v>
+      </c>
+      <c r="B29" s="3">
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>43586</v>
-      </c>
-      <c r="B30">
-        <v>1000</v>
+        <v>44682</v>
+      </c>
+      <c r="B30" s="3">
+        <v>975</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>43617</v>
-      </c>
-      <c r="B31">
-        <v>991</v>
+        <v>44713</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1109</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B32">
-        <v>1236</v>
+        <v>44743</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1551</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B33">
-        <v>1513</v>
+        <v>44774</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1516</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B34">
-        <v>996</v>
+        <v>44805</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B35">
-        <v>724</v>
+        <v>44835</v>
+      </c>
+      <c r="B35" s="3">
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B36">
-        <v>531</v>
+        <v>44866</v>
+      </c>
+      <c r="B36" s="3">
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B37">
-        <v>584</v>
+        <v>44896</v>
+      </c>
+      <c r="B37" s="3">
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B38">
-        <v>510</v>
+        <v>44927</v>
+      </c>
+      <c r="B38" s="3">
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B39">
-        <v>482</v>
+        <v>44958</v>
+      </c>
+      <c r="B39" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B40">
-        <v>610</v>
+        <v>44986</v>
+      </c>
+      <c r="B40" s="3">
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B41">
-        <v>689</v>
+        <v>45017</v>
+      </c>
+      <c r="B41" s="3">
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B42">
-        <v>1040</v>
+        <v>45047</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1063</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B43">
-        <v>1123</v>
+        <v>45078</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1142</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44013</v>
-      </c>
-      <c r="B44">
-        <v>1155</v>
+        <v>45108</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1688</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44044</v>
-      </c>
-      <c r="B45">
-        <v>1658</v>
+        <v>45139</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1710</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B46">
-        <v>1025</v>
+        <v>45170</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1234</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44105</v>
-      </c>
-      <c r="B47">
-        <v>649</v>
+        <v>45200</v>
+      </c>
+      <c r="B47" s="3">
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B48">
-        <v>573</v>
+        <v>45231</v>
+      </c>
+      <c r="B48" s="3">
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B49">
-        <v>599</v>
+        <v>45261</v>
+      </c>
+      <c r="B49" s="3">
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B50">
-        <v>510</v>
+        <v>45292</v>
+      </c>
+      <c r="B50" s="3">
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B51">
-        <v>458</v>
+        <v>45323</v>
+      </c>
+      <c r="B51" s="3">
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B52">
-        <v>602</v>
+        <v>45352</v>
+      </c>
+      <c r="B52" s="3">
+        <v>703</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44287</v>
-      </c>
-      <c r="B53">
-        <v>708</v>
+        <v>45383</v>
+      </c>
+      <c r="B53" s="3">
+        <v>924</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44317</v>
-      </c>
-      <c r="B54">
-        <v>915</v>
+        <v>45413</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1100</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44348</v>
-      </c>
-      <c r="B55">
-        <v>1089</v>
+        <v>45444</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1282</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44378</v>
-      </c>
-      <c r="B56">
-        <v>1485</v>
+        <v>45474</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1684</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44409</v>
-      </c>
-      <c r="B57">
-        <v>1427</v>
+        <v>45505</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1753</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B58">
-        <v>973</v>
+        <v>45536</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1282</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B59">
-        <v>779</v>
+        <v>45566</v>
+      </c>
+      <c r="B59" s="3">
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B60">
-        <v>582</v>
+        <v>45597</v>
+      </c>
+      <c r="B60" s="3">
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B61">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
-        <v>44562</v>
-      </c>
-      <c r="B62">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
-        <v>44593</v>
-      </c>
-      <c r="B63">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
-        <v>44621</v>
-      </c>
-      <c r="B64">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
-        <v>44652</v>
-      </c>
-      <c r="B65">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
-        <v>44682</v>
-      </c>
-      <c r="B66">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B67">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B68">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
-        <v>44774</v>
-      </c>
-      <c r="B69">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
-        <v>44805</v>
-      </c>
-      <c r="B70">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B71">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
-        <v>44866</v>
-      </c>
-      <c r="B72">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B73">
-        <v>663</v>
+        <v>45627</v>
+      </c>
+      <c r="B61" s="3">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>